--- a/pyenzyme/Examples/Validator/EnzymeML_Validation_Template_V1.xlsx
+++ b/pyenzyme/Examples/Validator/EnzymeML_Validation_Template_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR\Repositories\REST-Api\PyEnzyme\pyenzyme\Examples\Validator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26BEB15-BBA2-46CF-AFD8-6F07EF49C0B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71570C-FAA6-41B5-831A-89946631297C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{080C626A-F4AA-4F4E-B8CD-AF356DED3992}"/>
@@ -262,9 +262,6 @@
     <t>Reversible</t>
   </si>
   <si>
-    <t>Whether or not a reaction is reversible or not</t>
-  </si>
-  <si>
     <t>Type of data</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
       </rPr>
       <t>python generateJSON.py -p YourExcelSheet.xlsx</t>
     </r>
+  </si>
+  <si>
+    <t>Whether or not a reaction is reversible</t>
   </si>
 </sst>
 </file>
@@ -613,56 +613,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,7 +982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,74 +999,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="7"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>106</v>
+      <c r="G3" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1074,22 +1074,22 @@
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1097,22 +1097,22 @@
         <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1120,22 +1120,22 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1143,24 +1143,24 @@
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1168,20 +1168,20 @@
         <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1189,20 +1189,20 @@
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1210,24 +1210,24 @@
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1235,22 +1235,22 @@
         <v>8</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1258,45 +1258,45 @@
         <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1304,20 +1304,20 @@
         <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1325,22 +1325,22 @@
         <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1348,22 +1348,22 @@
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1371,20 +1371,20 @@
         <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1392,24 +1392,24 @@
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1417,22 +1417,22 @@
         <v>8</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1440,20 +1440,20 @@
         <v>18</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1461,22 +1461,22 @@
         <v>19</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1484,22 +1484,22 @@
         <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1507,20 +1507,20 @@
         <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1528,24 +1528,24 @@
         <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1553,22 +1553,22 @@
         <v>8</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1576,20 +1576,20 @@
         <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1597,22 +1597,22 @@
         <v>28</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1620,22 +1620,22 @@
         <v>29</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>75</v>
+      <c r="C29" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1643,24 +1643,24 @@
         <v>30</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1668,22 +1668,22 @@
         <v>32</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>80</v>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1691,22 +1691,22 @@
         <v>33</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>81</v>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1714,22 +1714,22 @@
         <v>34</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>82</v>
+      <c r="C33" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1737,24 +1737,24 @@
         <v>35</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1762,22 +1762,22 @@
         <v>8</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1785,20 +1785,20 @@
         <v>37</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1806,24 +1806,24 @@
         <v>38</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1831,22 +1831,22 @@
         <v>40</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -1854,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1863,6 +1863,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C14:C15"/>
@@ -1870,11 +1875,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attribuute Importance" prompt="Please define whether an attribute is mandatory, optional or not supported." sqref="E3" xr:uid="{CF38C25D-38F4-42BB-9987-DA64B42BF62D}"/>

--- a/pyenzyme/Examples/Validator/EnzymeML_Validation_Template_V1.xlsx
+++ b/pyenzyme/Examples/Validator/EnzymeML_Validation_Template_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR\Repositories\REST-Api\PyEnzyme\pyenzyme\Examples\Validator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71570C-FAA6-41B5-831A-89946631297C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB54D9-7BE1-447A-B06C-FCAAC0E692E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{080C626A-F4AA-4F4E-B8CD-AF356DED3992}"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="114">
   <si>
     <t>EnzymeML validation template</t>
   </si>
@@ -301,15 +301,9 @@
     <t>Estimated parameters</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>clss</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
   </si>
   <si>
     <t>organism</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
   </si>
   <si>
     <t>Amino acid sequence</t>
@@ -388,6 +379,18 @@
   </si>
   <si>
     <t>Whether or not a reaction is reversible</t>
+  </si>
+  <si>
+    <t>Not supported</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
@@ -980,9 +983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C591E2-C4BF-4DA0-8E31-E57BD568CF18}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,22 +1007,22 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
       <c r="D2" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G2" s="18"/>
     </row>
@@ -1034,22 +1037,22 @@
         <v>5</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,10 +1066,10 @@
         <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1074,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1085,11 +1088,11 @@
       <c r="C5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>103</v>
+      <c r="D5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1097,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1108,11 +1111,11 @@
       <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>103</v>
+      <c r="D6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1120,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,11 +1134,11 @@
       <c r="C7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>103</v>
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1143,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,11 +1159,11 @@
       <c r="C8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>103</v>
+      <c r="D8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1168,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,11 +1180,11 @@
         <v>50</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>103</v>
+      <c r="D9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1189,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,11 +1201,11 @@
         <v>15</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>103</v>
+      <c r="D10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1210,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,11 +1226,11 @@
       <c r="C11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>103</v>
+      <c r="D11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1235,22 +1238,22 @@
         <v>8</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>103</v>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1258,30 +1261,30 @@
         <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,11 +1295,11 @@
       <c r="C14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>103</v>
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1304,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,11 +1316,11 @@
         <v>57</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>103</v>
+      <c r="D15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1325,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1336,11 +1339,11 @@
       <c r="C16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>103</v>
+      <c r="D16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1348,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1359,11 +1362,11 @@
       <c r="C17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>103</v>
+      <c r="D17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1371,7 +1374,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1380,11 +1383,11 @@
         <v>63</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>103</v>
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1392,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,11 +1408,11 @@
       <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>103</v>
+      <c r="D19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1417,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1428,11 +1431,11 @@
       <c r="C20" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>103</v>
+      <c r="D20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1440,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,11 +1452,11 @@
         <v>57</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>103</v>
+      <c r="D21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1461,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1472,11 +1475,11 @@
       <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>103</v>
+      <c r="D22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1484,7 +1487,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,11 +1498,11 @@
       <c r="C23" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>103</v>
+      <c r="D23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1507,7 +1510,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1516,11 +1519,11 @@
         <v>68</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>103</v>
+      <c r="D24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1528,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,11 +1544,11 @@
       <c r="C25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>103</v>
+      <c r="D25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1553,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1564,11 +1567,11 @@
       <c r="C26" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>103</v>
+      <c r="D26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1576,7 +1579,7 @@
         <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1585,11 +1588,11 @@
         <v>57</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>103</v>
+      <c r="D27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1597,7 +1600,7 @@
         <v>28</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1608,11 +1611,11 @@
       <c r="C28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>103</v>
+      <c r="D28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1620,7 +1623,7 @@
         <v>29</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,13 +1632,13 @@
         <v>74</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1643,7 +1646,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1656,11 +1659,11 @@
       <c r="C30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>103</v>
+      <c r="D30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1668,7 +1671,7 @@
         <v>32</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,11 +1682,11 @@
       <c r="C31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>103</v>
+      <c r="D31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1691,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1702,11 +1705,11 @@
       <c r="C32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>103</v>
+      <c r="D32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1714,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1725,11 +1728,11 @@
       <c r="C33" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>103</v>
+      <c r="D33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1737,7 +1740,7 @@
         <v>35</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,11 +1753,11 @@
       <c r="C34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>103</v>
+      <c r="D34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1762,7 +1765,7 @@
         <v>8</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,11 +1776,11 @@
       <c r="C35" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>103</v>
+      <c r="D35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1785,7 +1788,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1794,11 +1797,11 @@
         <v>57</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>103</v>
+      <c r="D36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1806,7 +1809,7 @@
         <v>38</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1819,11 +1822,11 @@
       <c r="C37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>103</v>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1831,7 +1834,7 @@
         <v>40</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,11 +1845,11 @@
       <c r="C38" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>103</v>
+      <c r="D38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -1854,7 +1857,7 @@
         <v>41</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1881,9 +1884,6 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="Attribute importance" prompt="Please define whether an attribute is mandatory, optional or not supported._x000a_" sqref="E4:E38" xr:uid="{8DD11BA2-F276-4468-8322-79F4A0C5E898}">
       <formula1>"Mandatory,Optional,Not supported"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D38" xr:uid="{BF0321AD-0F75-4F78-B3A6-E496D14C2FB9}">
-      <formula1>"str,float,int,bool"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Vocabulary" prompt="Enter allowed elements such as specific units for a concentration or amino acids allowed. These are case sensitive!! Please make sure, all elements are seperated by a coma. _x000a__x000a_Example:_x000a__x000a_mmole / l, umole / l" sqref="G3" xr:uid="{B05F8E09-3F22-4194-8AEF-0CABAD48F842}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Value range" prompt="Defines minimum and maximum boundaries for an attribute. Please make sure to enter these values by pattern &quot;MinVal-MaxVal&quot;_x000a__x000a_Example:_x000a__x000a_10-1000" sqref="F3" xr:uid="{18093303-7938-4E33-B69E-935923453F06}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data Type" prompt="Defines the primitive type of the data. Only change these values if necessary. These are already set to match community standard as well as EnzymeML standard." sqref="D3" xr:uid="{EC8A0DC7-07B8-4D30-A5E2-5BB5D6F9DC9D}"/>
@@ -1893,6 +1893,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="PyEnzyme class - Attributes following this row are used within the class given until the next class occurs._x000a__x000a_Example:_x000a__x000a_EnzymeMLDocument --&gt; Name, DOI, PMID, URL" sqref="A3" xr:uid="{2E65ABA8-B65F-4503-99E0-553D99278037}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Attributes related to a PyEnzyme class" sqref="B3" xr:uid="{B2036B50-98D9-4E3E-BF9E-6C7C8F265F76}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Description of an attribute" sqref="C3" xr:uid="{A6232A97-D012-48E7-8935-2116CA9B85A4}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D38" xr:uid="{A3C57A67-6F59-455B-90A3-3130C0D36845}">
+      <formula1>"string,float,integer,boolean"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
